--- a/Example/Excel/Test.xlsx
+++ b/Example/Excel/Test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\Example\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataTable\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A6DF2-9B17-4A9D-BACA-5EBAD7813D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>dic&lt;string,float&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
   </si>
   <si>
@@ -218,13 +213,21 @@
   </si>
   <si>
     <t>枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#paramNmae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,16 +551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="24" style="1" customWidth="1"/>
@@ -585,12 +588,12 @@
         <v>37</v>
       </c>
       <c r="N1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -629,12 +632,12 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>43</v>
@@ -673,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -714,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -755,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -796,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -837,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -878,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -919,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -960,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1001,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1042,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1083,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1124,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1165,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1206,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -1247,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
@@ -1288,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
@@ -1329,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
@@ -1370,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
@@ -1411,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
